--- a/data/RegionalImpact.xlsx
+++ b/data/RegionalImpact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvargas\Documents\GitHub\mining-io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FF7F5C-950A-4920-A0E1-15D5ACC92B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C716015-3D9B-4E33-9F76-4120E05EB5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C17982EF-0A6C-4083-97AD-750CFD802F07}"/>
   </bookViews>
@@ -1491,9 +1491,6 @@
     <t>Total (sum test)</t>
   </si>
   <si>
-    <t>Regional employment multiplier</t>
-  </si>
-  <si>
     <t>Brazil</t>
   </si>
   <si>
@@ -1504,6 +1501,9 @@
   </si>
   <si>
     <t>South Africa</t>
+  </si>
+  <si>
+    <t>Regional Impacts</t>
   </si>
 </sst>
 </file>
@@ -2177,7 +2177,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8342035E-F530-45C7-A98E-A1BB145ABF2C}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2186,27 +2188,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
